--- a/gameTb/client/table/网络配置.xlsx
+++ b/gameTb/client/table/网络配置.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unseen\gameTb\client\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\client\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>int32_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,18 @@
   </si>
   <si>
     <t>连接分派器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动重连</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -745,7 +757,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -876,7 +888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -933,11 +945,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B5:B6"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -953,7 +965,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -978,8 +990,11 @@
       <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1004,8 +1019,11 @@
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1029,6 +1047,9 @@
       </c>
       <c r="H3" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/table/网络配置.xlsx
+++ b/gameTb/client/table/网络配置.xlsx
@@ -9,22 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="netCondition" sheetId="9" r:id="rId1"/>
-    <sheet name="netReward" sheetId="10" r:id="rId2"/>
-    <sheet name="acceptorMgr" sheetId="14" r:id="rId3"/>
-    <sheet name="connectEngine" sheetId="15" r:id="rId4"/>
-    <sheet name="netEngine.i" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="dispatchId.j" sheetId="17" state="hidden" r:id="rId6"/>
-    <sheet name="appType.j" sheetId="16" state="hidden" r:id="rId7"/>
-    <sheet name="conditionType.j" sheetId="13" state="hidden" r:id="rId8"/>
-    <sheet name="rewardType.j" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="netReward" sheetId="10" r:id="rId1"/>
+    <sheet name="acceptorMgr" sheetId="14" r:id="rId2"/>
+    <sheet name="connectEngine" sheetId="15" r:id="rId3"/>
+    <sheet name="netEngine.i" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="dispatchId.j" sheetId="17" state="hidden" r:id="rId5"/>
+    <sheet name="appType.j" sheetId="16" state="hidden" r:id="rId6"/>
+    <sheet name="rewardType.j" sheetId="12" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="appTypek">appType.j!$A:$A</definedName>
-    <definedName name="conditionTypek">conditionType.j!$A:$A</definedName>
+    <definedName name="conditionTypek">#REF!</definedName>
     <definedName name="dispatchIdk">dispatchId.j!$A:$A</definedName>
     <definedName name="rewardTypek">rewardType.j!$A:$A</definedName>
   </definedNames>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>int32_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,72 +46,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>conditionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditionParam</t>
+    <t>rewardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardParam_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardParam_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardParam_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardParam_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardParam_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardParam_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardParam_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardParam_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参数3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参数4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参数5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参数6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参数7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参数8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardType.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconnectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int32_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断连事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectErrorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeoutId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconnectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int16_t</t>
-  </si>
-  <si>
-    <t>int8_t</t>
-  </si>
-  <si>
-    <t>条件编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardParam_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardParam_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardParam_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardParam_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardParam_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardParam_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardParam_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardParam_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断连触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appType.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchId.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分派器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话分派器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectDispatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,228 +290,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件参数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件参数3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件参数4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件参数5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件参数6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件参数7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件参数8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditionType.j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardType.j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disconnectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispatchId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断连事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectErrorId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeoutId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disconnectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断连触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appType.j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>连接分派器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动重连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求代理服务器地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向代理服务器发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求代理服务器地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接代理服务器</t>
   </si>
   <si>
     <t>代理服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中心服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispatchId.j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要分派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>帐号管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分派器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会话分派器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectDispatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接分派器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reconnect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动重连</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -692,79 +678,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>conditionTypek</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
@@ -777,34 +702,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -812,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -841,34 +766,53 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -901,21 +845,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -923,13 +867,13 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -943,13 +887,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -967,39 +911,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1011,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
@@ -1020,36 +964,47 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>76</v>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1066,12 +1021,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1083,34 +1038,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1120,12 +1067,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1136,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1144,7 +1091,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1152,7 +1099,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1160,7 +1107,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1168,7 +1115,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1180,7 +1127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1197,7 +1144,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -1205,7 +1152,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1213,7 +1160,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -1221,7 +1168,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1229,7 +1176,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -1237,7 +1184,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
@@ -1245,7 +1192,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
@@ -1258,28 +1205,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -1287,9 +1215,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18.25" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gameTb/client/table/网络配置.xlsx
+++ b/gameTb/client/table/网络配置.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="netReward" sheetId="10" r:id="rId1"/>
     <sheet name="acceptorMgr" sheetId="14" r:id="rId2"/>
     <sheet name="connectEngine" sheetId="15" r:id="rId3"/>
-    <sheet name="netEngine.i" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="netEngine.i" sheetId="2" r:id="rId4"/>
     <sheet name="dispatchId.j" sheetId="17" state="hidden" r:id="rId5"/>
     <sheet name="appType.j" sheetId="16" state="hidden" r:id="rId6"/>
     <sheet name="rewardType.j" sheetId="12" state="hidden" r:id="rId7"/>
@@ -891,9 +891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1003,8 +1003,26 @@
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C4" s="2">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="G4" s="2">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1025,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/gameTb/client/table/网络配置.xlsx
+++ b/gameTb/client/table/网络配置.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="netReward" sheetId="10" r:id="rId1"/>
     <sheet name="acceptorMgr" sheetId="14" r:id="rId2"/>
     <sheet name="connectEngine" sheetId="15" r:id="rId3"/>
     <sheet name="netEngine.i" sheetId="2" r:id="rId4"/>
-    <sheet name="dispatchId.j" sheetId="17" state="hidden" r:id="rId5"/>
-    <sheet name="appType.j" sheetId="16" state="hidden" r:id="rId6"/>
-    <sheet name="rewardType.j" sheetId="12" state="hidden" r:id="rId7"/>
+    <sheet name="reconnect.j" sheetId="18" state="hidden" r:id="rId5"/>
+    <sheet name="dispatchId.j" sheetId="17" state="hidden" r:id="rId6"/>
+    <sheet name="appType.j" sheetId="16" state="hidden" r:id="rId7"/>
+    <sheet name="rewardType.j" sheetId="12" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="appTypek">appType.j!$A:$A</definedName>
     <definedName name="conditionTypek">#REF!</definedName>
     <definedName name="dispatchIdk">dispatchId.j!$A:$A</definedName>
+    <definedName name="reconnectk">reconnect.j!$A:$A</definedName>
     <definedName name="rewardTypek">rewardType.j!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>int32_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +331,25 @@
   </si>
   <si>
     <t>帐号管理</t>
+  </si>
+  <si>
+    <t>reconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reconnect.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -891,9 +912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1021,18 +1042,21 @@
       <c r="H4" s="2">
         <v>30</v>
       </c>
-      <c r="I4" s="2">
-        <v>31</v>
+      <c r="I4" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>appTypek</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 B1:B1048576">
       <formula1>dispatchIdk</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>reconnectk</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1041,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1078,6 +1102,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1086,6 +1118,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1145,7 +1213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1223,7 +1291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/gameTb/client/table/网络配置.xlsx
+++ b/gameTb/client/table/网络配置.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="netReward" sheetId="10" r:id="rId1"/>
     <sheet name="acceptorMgr" sheetId="14" r:id="rId2"/>
     <sheet name="connectEngine" sheetId="15" r:id="rId3"/>
-    <sheet name="netEngine.i" sheetId="2" r:id="rId4"/>
+    <sheet name="netEngine.i" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="reconnect.j" sheetId="18" state="hidden" r:id="rId5"/>
     <sheet name="dispatchId.j" sheetId="17" state="hidden" r:id="rId6"/>
     <sheet name="appType.j" sheetId="16" state="hidden" r:id="rId7"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>int32_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,14 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchId.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectDispatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +711,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -853,7 +861,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -914,7 +922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1025,22 +1033,22 @@
         <v>73</v>
       </c>
       <c r="C4" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G4" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>77</v>
@@ -1065,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1108,6 +1116,14 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/table/网络配置.xlsx
+++ b/gameTb/client/table/网络配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="netReward" sheetId="10" r:id="rId1"/>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帐号管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,9 +326,6 @@
     <t>代理服务器</t>
   </si>
   <si>
-    <t>帐号管理</t>
-  </si>
-  <si>
     <t>reconnect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +350,13 @@
   </si>
   <si>
     <t>connectDispatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>角色管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,9 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -896,7 +896,7 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
@@ -920,14 +920,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
@@ -943,7 +943,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
@@ -964,7 +964,7 @@
         <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1001,7 +1001,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -1013,7 +1013,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>42</v>
@@ -1022,15 +1022,15 @@
         <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
@@ -1042,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>7</v>
@@ -1051,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1112,18 +1112,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1148,7 +1148,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1289,7 +1289,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -1297,7 +1297,7 @@
         <v>52</v>
       </c>
       <c r="B7" s="2">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1323,7 +1323,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>

--- a/gameTb/client/table/网络配置.xlsx
+++ b/gameTb/client/table/网络配置.xlsx
@@ -23,7 +23,6 @@
   </sheets>
   <definedNames>
     <definedName name="appTypek">appType.j!$A:$A</definedName>
-    <definedName name="conditionTypek">#REF!</definedName>
     <definedName name="dispatchIdk">dispatchId.j!$A:$A</definedName>
     <definedName name="reconnectk">reconnect.j!$A:$A</definedName>
     <definedName name="rewardTypek">rewardType.j!$A:$A</definedName>

--- a/gameTb/client/table/网络配置.xlsx
+++ b/gameTb/client/table/网络配置.xlsx
@@ -710,13 +710,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
@@ -860,14 +860,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -921,17 +921,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
@@ -948,13 +948,13 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>35</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>42</v>
@@ -1037,11 +1037,11 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2">
         <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>7</v>
@@ -1059,7 +1059,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>appTypek</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 E1:E1048576">
       <formula1>dispatchIdk</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
